--- a/data/RS_ALL_IN_ONE_metadata.xlsx
+++ b/data/RS_ALL_IN_ONE_metadata.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://olddominion-my.sharepoint.com/personal/oruma001_odu_edu/Documents/Lemos_OneDrive_odu_windows/Research_ODU/R001_Fall_2023_AI_Reproducibility/github/ai-reproducibility/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ecs-homedirs.cs.odu.edu\homedirs\Grad\cs_oruma001\Downloads\ai-reproducibility-main\ai-reproducibility\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2050" documentId="11_4939C1E5905BCCBBE3527F33B50F13FD797F059F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0773D67-7E2D-46DF-A411-54D59766FA20}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1F9050-CA5C-4530-9CCA-3C8A45094DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4680" yWindow="2010" windowWidth="26130" windowHeight="13995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2704" uniqueCount="1715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3079" uniqueCount="1723">
   <si>
     <t>key_for_all_RS</t>
   </si>
@@ -6393,7 +6396,31 @@
     <t>citation_count_org</t>
   </si>
   <si>
+    <t>valid_citation_context_count</t>
+  </si>
+  <si>
+    <t>Cited Paper</t>
+  </si>
+  <si>
+    <t>Citations</t>
+  </si>
+  <si>
+    <t>Citation Contexts</t>
+  </si>
+  <si>
+    <t>Labelled</t>
+  </si>
+  <si>
     <t>total_context_count_for_labelling</t>
+  </si>
+  <si>
+    <t>Labelling_status</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>Selected for first 20 documents</t>
   </si>
   <si>
     <t>citing_paper_count</t>
@@ -6427,7 +6454,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6449,6 +6476,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6525,7 +6558,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -6565,12 +6598,310 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="44">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -6680,7 +7011,56 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFABF8F"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFABF8F"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6991,7 +7371,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B73" sqref="B73"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7057,10 +7437,10 @@
         <v>1712</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1714</v>
+        <v>1722</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1713</v>
+        <v>1718</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>13</v>
@@ -7136,6 +7516,9 @@
       <c r="L2" s="2" t="s">
         <v>1147</v>
       </c>
+      <c r="M2" t="s">
+        <v>1277</v>
+      </c>
       <c r="N2">
         <v>76</v>
       </c>
@@ -10403,6 +10786,9 @@
       <c r="J47" t="s">
         <v>1019</v>
       </c>
+      <c r="L47" t="s">
+        <v>1305</v>
+      </c>
       <c r="M47" t="s">
         <v>1305</v>
       </c>
@@ -16632,6 +17018,9 @@
       <c r="J118" t="s">
         <v>1090</v>
       </c>
+      <c r="L118" t="s">
+        <v>1305</v>
+      </c>
       <c r="M118" t="s">
         <v>1305</v>
       </c>
@@ -16706,6 +17095,9 @@
       <c r="J119" t="s">
         <v>1091</v>
       </c>
+      <c r="L119" t="s">
+        <v>1305</v>
+      </c>
       <c r="M119" t="s">
         <v>1305</v>
       </c>
@@ -17640,6 +18032,9 @@
       <c r="J130" t="s">
         <v>1102</v>
       </c>
+      <c r="L130" t="s">
+        <v>1305</v>
+      </c>
       <c r="M130" t="s">
         <v>1305</v>
       </c>
@@ -18880,50 +19275,65 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D150">
-    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="Editorial">
+    <cfRule type="containsText" dxfId="41" priority="23" operator="containsText" text="Editorial">
       <formula>NOT(ISERROR(SEARCH("Editorial",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L47">
+    <cfRule type="containsText" dxfId="40" priority="1" operator="containsText" text="NOT">
+      <formula>NOT(ISERROR(SEARCH("NOT",L47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L118:L119">
+    <cfRule type="containsText" dxfId="39" priority="2" operator="containsText" text="NOT">
+      <formula>NOT(ISERROR(SEARCH("NOT",L118)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L130">
+    <cfRule type="containsText" dxfId="38" priority="4" operator="containsText" text="NOT">
+      <formula>NOT(ISERROR(SEARCH("NOT",L130)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L2:P150">
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="Corpus">
+    <cfRule type="containsText" dxfId="37" priority="6" operator="containsText" text="Corpus">
       <formula>NOT(ISERROR(SEARCH("Corpus",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:P150">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="NOT">
+    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="NOT">
       <formula>NOT(ISERROR(SEARCH("NOT",M2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z2:Z46 Z48:Z117 Z120:Z129 Z131:Z150">
-    <cfRule type="cellIs" dxfId="7" priority="15" operator="notBetween">
+    <cfRule type="cellIs" dxfId="35" priority="19" operator="notBetween">
       <formula>0</formula>
       <formula>1</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="6" priority="20">
+    <cfRule type="containsBlanks" dxfId="34" priority="24">
       <formula>LEN(TRIM(Z2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z47">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="NOT">
+    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="NOT">
       <formula>NOT(ISERROR(SEARCH("NOT",Z47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Corpus">
+    <cfRule type="containsText" dxfId="32" priority="8" operator="containsText" text="Corpus">
       <formula>NOT(ISERROR(SEARCH("Corpus",Z47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z118:Z119">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="NOT">
+    <cfRule type="containsText" dxfId="31" priority="9" operator="containsText" text="NOT">
       <formula>NOT(ISERROR(SEARCH("NOT",Z118)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="Corpus">
+    <cfRule type="containsText" dxfId="30" priority="10" operator="containsText" text="Corpus">
       <formula>NOT(ISERROR(SEARCH("Corpus",Z118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z130">
-    <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text="NOT">
+    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="NOT">
       <formula>NOT(ISERROR(SEARCH("NOT",Z130)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="10" operator="containsText" text="Corpus">
+    <cfRule type="containsText" dxfId="28" priority="14" operator="containsText" text="Corpus">
       <formula>NOT(ISERROR(SEARCH("Corpus",Z130)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19491,4 +19901,5427 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId560"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28075209-3DEE-402B-B66D-DF87D879C12D}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="13">
+        <v>241</v>
+      </c>
+      <c r="C2" s="8">
+        <v>177</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B3" s="13">
+        <v>39</v>
+      </c>
+      <c r="C3" s="8">
+        <v>27</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="13">
+        <v>95</v>
+      </c>
+      <c r="C4" s="8">
+        <v>66</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="13">
+        <v>55</v>
+      </c>
+      <c r="C5" s="8">
+        <v>36</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="13">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8">
+        <v>10</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="13">
+        <v>43</v>
+      </c>
+      <c r="C7" s="8">
+        <v>34</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="13">
+        <v>52</v>
+      </c>
+      <c r="C8" s="8">
+        <v>36</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="13">
+        <v>33</v>
+      </c>
+      <c r="C9" s="8">
+        <v>28</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="13">
+        <v>84</v>
+      </c>
+      <c r="C10" s="8">
+        <v>59</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B11" s="13">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B12" s="13">
+        <v>4</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="6"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="13">
+        <v>109</v>
+      </c>
+      <c r="C14" s="8">
+        <v>76</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="13">
+        <v>27</v>
+      </c>
+      <c r="C15" s="8">
+        <v>21</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" s="13">
+        <v>8</v>
+      </c>
+      <c r="C16" s="8">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" s="13">
+        <v>22</v>
+      </c>
+      <c r="C17" s="8">
+        <v>18</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="B18" s="13">
+        <v>0</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:C18">
+    <cfRule type="containsText" dxfId="27" priority="1" operator="containsText" text="NOT">
+      <formula>NOT(ISERROR(SEARCH("NOT",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="2" operator="containsText" text="Corpus">
+      <formula>NOT(ISERROR(SEARCH("Corpus",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D18">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="notBetween">
+      <formula>0</formula>
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="24" priority="4">
+      <formula>LEN(TRIM(D2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{219E43E9-428A-4C5A-8A5C-9A179B229B0E}">
+  <dimension ref="A1:I150"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B138" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17" style="8" customWidth="1"/>
+    <col min="4" max="4" width="15" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="22">
+        <v>2</v>
+      </c>
+      <c r="C2" s="22">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>1720</v>
+      </c>
+      <c r="H2" s="21"/>
+      <c r="I2" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="22">
+        <v>2</v>
+      </c>
+      <c r="C3" s="22">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="22">
+        <v>10</v>
+      </c>
+      <c r="C4" s="22">
+        <v>22</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="22">
+        <v>27</v>
+      </c>
+      <c r="C5" s="22">
+        <v>55</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="22">
+        <v>34</v>
+      </c>
+      <c r="C6" s="22">
+        <v>68</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="22">
+        <v>28</v>
+      </c>
+      <c r="C7" s="22">
+        <v>90</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="22">
+        <v>36</v>
+      </c>
+      <c r="C8" s="22">
+        <v>124</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="22">
+        <v>36</v>
+      </c>
+      <c r="C9" s="22">
+        <v>129</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="22">
+        <v>66</v>
+      </c>
+      <c r="C10" s="22">
+        <v>137</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="22">
+        <v>59</v>
+      </c>
+      <c r="C11" s="22">
+        <v>173</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="22">
+        <v>177</v>
+      </c>
+      <c r="C12" s="22">
+        <v>482</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="22">
+        <v>7</v>
+      </c>
+      <c r="C13" s="22">
+        <v>13</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="22">
+        <v>67</v>
+      </c>
+      <c r="C14" s="22">
+        <v>112</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="22">
+        <v>8</v>
+      </c>
+      <c r="C15" s="22">
+        <v>21</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="22">
+        <v>18</v>
+      </c>
+      <c r="C16" s="22">
+        <v>26</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="22">
+        <v>17</v>
+      </c>
+      <c r="C17" s="22">
+        <v>50</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="22">
+        <v>6</v>
+      </c>
+      <c r="C18" s="22">
+        <v>16</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="22">
+        <v>6</v>
+      </c>
+      <c r="C19" s="22">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="22">
+        <v>6</v>
+      </c>
+      <c r="C20" s="22">
+        <v>16</v>
+      </c>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="22">
+        <v>13</v>
+      </c>
+      <c r="C21" s="22">
+        <v>40</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="22">
+        <v>35</v>
+      </c>
+      <c r="C22" s="22">
+        <v>74</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="22">
+        <v>150</v>
+      </c>
+      <c r="C23" s="22">
+        <v>269</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="8">
+        <v>15</v>
+      </c>
+      <c r="C24" s="8">
+        <v>49</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="8">
+        <v>9</v>
+      </c>
+      <c r="C25" s="8">
+        <v>11</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8">
+        <v>57</v>
+      </c>
+      <c r="C26" s="8">
+        <v>141</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="8">
+        <v>6</v>
+      </c>
+      <c r="C27" s="8">
+        <v>11</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="8">
+        <v>17</v>
+      </c>
+      <c r="C28" s="8">
+        <v>37</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="8">
+        <v>15</v>
+      </c>
+      <c r="C29" s="8">
+        <v>44</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="8">
+        <v>22</v>
+      </c>
+      <c r="C30" s="8">
+        <v>52</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="8">
+        <v>53</v>
+      </c>
+      <c r="C31" s="8">
+        <v>91</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="8">
+        <v>58</v>
+      </c>
+      <c r="C32" s="8">
+        <v>113</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="8">
+        <v>38</v>
+      </c>
+      <c r="C33" s="8">
+        <v>118</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="8">
+        <v>61</v>
+      </c>
+      <c r="C34" s="8">
+        <v>154</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="8">
+        <v>76</v>
+      </c>
+      <c r="C35" s="8">
+        <v>222</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="8">
+        <v>210</v>
+      </c>
+      <c r="C36" s="8">
+        <v>962</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="8">
+        <v>20</v>
+      </c>
+      <c r="C37" s="8">
+        <v>51</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="8">
+        <v>32</v>
+      </c>
+      <c r="C38" s="8">
+        <v>73</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="8">
+        <v>5</v>
+      </c>
+      <c r="C39" s="8">
+        <v>24</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="8">
+        <v>17</v>
+      </c>
+      <c r="C40" s="8">
+        <v>50</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="8">
+        <v>58</v>
+      </c>
+      <c r="C41" s="8">
+        <v>140</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="8">
+        <v>6</v>
+      </c>
+      <c r="C42" s="8">
+        <v>10</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="8">
+        <v>9</v>
+      </c>
+      <c r="C43" s="8">
+        <v>19</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="8">
+        <v>26</v>
+      </c>
+      <c r="C44" s="8">
+        <v>61</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="8">
+        <v>8</v>
+      </c>
+      <c r="C45" s="8">
+        <v>13</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="8">
+        <v>58</v>
+      </c>
+      <c r="C46" s="8">
+        <v>113</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="8">
+        <v>14</v>
+      </c>
+      <c r="C47" s="8">
+        <v>35</v>
+      </c>
+      <c r="D47" s="19">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="8">
+        <v>0</v>
+      </c>
+      <c r="C48" s="8">
+        <v>0</v>
+      </c>
+      <c r="D48" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="8">
+        <v>0</v>
+      </c>
+      <c r="C49" s="8">
+        <v>0</v>
+      </c>
+      <c r="D49" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B50" s="8">
+        <v>0</v>
+      </c>
+      <c r="C50" s="8">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="8">
+        <v>2</v>
+      </c>
+      <c r="C51" s="8">
+        <v>2</v>
+      </c>
+      <c r="D51" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="8">
+        <v>2</v>
+      </c>
+      <c r="C52" s="8">
+        <v>3</v>
+      </c>
+      <c r="D52" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="8">
+        <v>2</v>
+      </c>
+      <c r="C53" s="8">
+        <v>3</v>
+      </c>
+      <c r="D53" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="8">
+        <v>4</v>
+      </c>
+      <c r="C54" s="8">
+        <v>5</v>
+      </c>
+      <c r="D54" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="8">
+        <v>6</v>
+      </c>
+      <c r="C55" s="8">
+        <v>8</v>
+      </c>
+      <c r="D55" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="8">
+        <v>5</v>
+      </c>
+      <c r="C56" s="8">
+        <v>9</v>
+      </c>
+      <c r="D56" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="8">
+        <v>5</v>
+      </c>
+      <c r="C57" s="8">
+        <v>11</v>
+      </c>
+      <c r="D57" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="8">
+        <v>5</v>
+      </c>
+      <c r="C58" s="8">
+        <v>11</v>
+      </c>
+      <c r="D58" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="8">
+        <v>8</v>
+      </c>
+      <c r="C59" s="8">
+        <v>13</v>
+      </c>
+      <c r="D59" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="8">
+        <v>9</v>
+      </c>
+      <c r="C60" s="8">
+        <v>13</v>
+      </c>
+      <c r="D60" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="8">
+        <v>7</v>
+      </c>
+      <c r="C61" s="8">
+        <v>13</v>
+      </c>
+      <c r="D61" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="8">
+        <v>6</v>
+      </c>
+      <c r="C62" s="8">
+        <v>14</v>
+      </c>
+      <c r="D62" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="8">
+        <v>7</v>
+      </c>
+      <c r="C63" s="8">
+        <v>15</v>
+      </c>
+      <c r="D63" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="8">
+        <v>6</v>
+      </c>
+      <c r="C64" s="8">
+        <v>16</v>
+      </c>
+      <c r="D64" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" s="8">
+        <v>6</v>
+      </c>
+      <c r="C65" s="8">
+        <v>16</v>
+      </c>
+      <c r="D65" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" s="8">
+        <v>6</v>
+      </c>
+      <c r="C66" s="8">
+        <v>16</v>
+      </c>
+      <c r="D66" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="8">
+        <v>5</v>
+      </c>
+      <c r="C67" s="8">
+        <v>18</v>
+      </c>
+      <c r="D67" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="8">
+        <v>9</v>
+      </c>
+      <c r="C68" s="8">
+        <v>19</v>
+      </c>
+      <c r="D68" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69" s="8">
+        <v>11</v>
+      </c>
+      <c r="C69" s="8">
+        <v>21</v>
+      </c>
+      <c r="D69" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="8">
+        <v>15</v>
+      </c>
+      <c r="C70" s="8">
+        <v>21</v>
+      </c>
+      <c r="D70" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" s="8">
+        <v>14</v>
+      </c>
+      <c r="C71" s="8">
+        <v>26</v>
+      </c>
+      <c r="D71" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="8">
+        <v>9</v>
+      </c>
+      <c r="C72" s="8">
+        <v>28</v>
+      </c>
+      <c r="D72" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="8">
+        <v>15</v>
+      </c>
+      <c r="C73" s="8">
+        <v>34</v>
+      </c>
+      <c r="D73" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="8">
+        <v>16</v>
+      </c>
+      <c r="C74" s="8">
+        <v>34</v>
+      </c>
+      <c r="D74" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75" s="8">
+        <v>21</v>
+      </c>
+      <c r="C75" s="8">
+        <v>36</v>
+      </c>
+      <c r="D75" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" s="8">
+        <v>17</v>
+      </c>
+      <c r="C76" s="8">
+        <v>37</v>
+      </c>
+      <c r="D76" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B77" s="8">
+        <v>9</v>
+      </c>
+      <c r="C77" s="8">
+        <v>38</v>
+      </c>
+      <c r="D77" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B78" s="8">
+        <v>18</v>
+      </c>
+      <c r="C78" s="8">
+        <v>39</v>
+      </c>
+      <c r="D78" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="8">
+        <v>24</v>
+      </c>
+      <c r="C79" s="8">
+        <v>43</v>
+      </c>
+      <c r="D79" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" s="8">
+        <v>21</v>
+      </c>
+      <c r="C80" s="8">
+        <v>44</v>
+      </c>
+      <c r="D80" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" s="8">
+        <v>24</v>
+      </c>
+      <c r="C81" s="8">
+        <v>46</v>
+      </c>
+      <c r="D81" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82" s="8">
+        <v>10</v>
+      </c>
+      <c r="C82" s="8">
+        <v>46</v>
+      </c>
+      <c r="D82" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B83" s="8">
+        <v>17</v>
+      </c>
+      <c r="C83" s="8">
+        <v>50</v>
+      </c>
+      <c r="D83" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B84" s="8">
+        <v>9</v>
+      </c>
+      <c r="C84" s="8">
+        <v>51</v>
+      </c>
+      <c r="D84" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B85" s="8">
+        <v>30</v>
+      </c>
+      <c r="C85" s="8">
+        <v>51</v>
+      </c>
+      <c r="D85" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B86" s="8">
+        <v>23</v>
+      </c>
+      <c r="C86" s="8">
+        <v>52</v>
+      </c>
+      <c r="D86" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B87" s="8">
+        <v>17</v>
+      </c>
+      <c r="C87" s="8">
+        <v>55</v>
+      </c>
+      <c r="D87" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B88" s="8">
+        <v>17</v>
+      </c>
+      <c r="C88" s="8">
+        <v>55</v>
+      </c>
+      <c r="D88" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B89" s="8">
+        <v>17</v>
+      </c>
+      <c r="C89" s="8">
+        <v>55</v>
+      </c>
+      <c r="D89" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B90" s="8">
+        <v>30</v>
+      </c>
+      <c r="C90" s="8">
+        <v>56</v>
+      </c>
+      <c r="D90" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="8">
+        <v>33</v>
+      </c>
+      <c r="C91" s="8">
+        <v>58</v>
+      </c>
+      <c r="D91" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B92" s="8">
+        <v>15</v>
+      </c>
+      <c r="C92" s="8">
+        <v>58</v>
+      </c>
+      <c r="D92" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B93" s="8">
+        <v>15</v>
+      </c>
+      <c r="C93" s="8">
+        <v>58</v>
+      </c>
+      <c r="D93" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B94" s="8">
+        <v>24</v>
+      </c>
+      <c r="C94" s="8">
+        <v>59</v>
+      </c>
+      <c r="D94" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B95" s="8">
+        <v>19</v>
+      </c>
+      <c r="C95" s="8">
+        <v>63</v>
+      </c>
+      <c r="D95" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" s="8">
+        <v>12</v>
+      </c>
+      <c r="C96" s="8">
+        <v>63</v>
+      </c>
+      <c r="D96" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B97" s="8">
+        <v>17</v>
+      </c>
+      <c r="C97" s="8">
+        <v>68</v>
+      </c>
+      <c r="D97" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="8">
+        <v>17</v>
+      </c>
+      <c r="C98" s="8">
+        <v>68</v>
+      </c>
+      <c r="D98" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B99" s="8">
+        <v>32</v>
+      </c>
+      <c r="C99" s="8">
+        <v>73</v>
+      </c>
+      <c r="D99" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100" s="8">
+        <v>32</v>
+      </c>
+      <c r="C100" s="8">
+        <v>73</v>
+      </c>
+      <c r="D100" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" s="8">
+        <v>44</v>
+      </c>
+      <c r="C101" s="8">
+        <v>74</v>
+      </c>
+      <c r="D101" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B102" s="8">
+        <v>28</v>
+      </c>
+      <c r="C102" s="8">
+        <v>74</v>
+      </c>
+      <c r="D102" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B103" s="8">
+        <v>42</v>
+      </c>
+      <c r="C103" s="8">
+        <v>95</v>
+      </c>
+      <c r="D103" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B104" s="8">
+        <v>41</v>
+      </c>
+      <c r="C104" s="8">
+        <v>110</v>
+      </c>
+      <c r="D104" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B105" s="8">
+        <v>25</v>
+      </c>
+      <c r="C105" s="8">
+        <v>110</v>
+      </c>
+      <c r="D105" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" s="8">
+        <v>58</v>
+      </c>
+      <c r="C106" s="8">
+        <v>113</v>
+      </c>
+      <c r="D106" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B107" s="8">
+        <v>63</v>
+      </c>
+      <c r="C107" s="8">
+        <v>127</v>
+      </c>
+      <c r="D107" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" s="8">
+        <v>37</v>
+      </c>
+      <c r="C108" s="8">
+        <v>131</v>
+      </c>
+      <c r="D108" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B109" s="8">
+        <v>72</v>
+      </c>
+      <c r="C109" s="8">
+        <v>136</v>
+      </c>
+      <c r="D109" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" s="8">
+        <v>47</v>
+      </c>
+      <c r="C110" s="8">
+        <v>140</v>
+      </c>
+      <c r="D110" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B111" s="8">
+        <v>57</v>
+      </c>
+      <c r="C111" s="8">
+        <v>141</v>
+      </c>
+      <c r="D111" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B112" s="8">
+        <v>83</v>
+      </c>
+      <c r="C112" s="8">
+        <v>146</v>
+      </c>
+      <c r="D112" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B113" s="8">
+        <v>60</v>
+      </c>
+      <c r="C113" s="8">
+        <v>151</v>
+      </c>
+      <c r="D113" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B114" s="8">
+        <v>38</v>
+      </c>
+      <c r="C114" s="8">
+        <v>160</v>
+      </c>
+      <c r="D114" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B115" s="8">
+        <v>52</v>
+      </c>
+      <c r="C115" s="8">
+        <v>173</v>
+      </c>
+      <c r="D115" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B116" s="8">
+        <v>68</v>
+      </c>
+      <c r="C116" s="8">
+        <v>177</v>
+      </c>
+      <c r="D116" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B117" s="8">
+        <v>68</v>
+      </c>
+      <c r="C117" s="8">
+        <v>177</v>
+      </c>
+      <c r="D117" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B118" s="8">
+        <v>69</v>
+      </c>
+      <c r="C118" s="8">
+        <v>177</v>
+      </c>
+      <c r="D118" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" s="8">
+        <v>118</v>
+      </c>
+      <c r="C119" s="8">
+        <v>223</v>
+      </c>
+      <c r="D119" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B120" s="8">
+        <v>95</v>
+      </c>
+      <c r="C120" s="8">
+        <v>226</v>
+      </c>
+      <c r="D120" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B121" s="8">
+        <v>35</v>
+      </c>
+      <c r="C121" s="8">
+        <v>255</v>
+      </c>
+      <c r="D121" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B122" s="8">
+        <v>83</v>
+      </c>
+      <c r="C122" s="8">
+        <v>270</v>
+      </c>
+      <c r="D122" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B123" s="8">
+        <v>113</v>
+      </c>
+      <c r="C123" s="8">
+        <v>302</v>
+      </c>
+      <c r="D123" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B124" s="8">
+        <v>97</v>
+      </c>
+      <c r="C124" s="8">
+        <v>319</v>
+      </c>
+      <c r="D124" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B125" s="8">
+        <v>137</v>
+      </c>
+      <c r="C125" s="8">
+        <v>322</v>
+      </c>
+      <c r="D125" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B126" s="8">
+        <v>120</v>
+      </c>
+      <c r="C126" s="8">
+        <v>328</v>
+      </c>
+      <c r="D126" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B127" s="8">
+        <v>141</v>
+      </c>
+      <c r="C127" s="8">
+        <v>341</v>
+      </c>
+      <c r="D127" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B128" s="8">
+        <v>117</v>
+      </c>
+      <c r="C128" s="8">
+        <v>341</v>
+      </c>
+      <c r="D128" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129" s="8">
+        <v>129</v>
+      </c>
+      <c r="C129" s="8">
+        <v>350</v>
+      </c>
+      <c r="D129" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B130" s="8">
+        <v>141</v>
+      </c>
+      <c r="C130" s="8">
+        <v>421</v>
+      </c>
+      <c r="D130" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B131" s="8">
+        <v>166</v>
+      </c>
+      <c r="C131" s="8">
+        <v>428</v>
+      </c>
+      <c r="D131" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B132" s="8">
+        <v>219</v>
+      </c>
+      <c r="C132" s="8">
+        <v>505</v>
+      </c>
+      <c r="D132" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B133" s="8">
+        <v>177</v>
+      </c>
+      <c r="C133" s="8">
+        <v>510</v>
+      </c>
+      <c r="D133" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134" s="8">
+        <v>175</v>
+      </c>
+      <c r="C134" s="8">
+        <v>528</v>
+      </c>
+      <c r="D134" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B135" s="8">
+        <v>289</v>
+      </c>
+      <c r="C135" s="8">
+        <v>614</v>
+      </c>
+      <c r="D135" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B136" s="8">
+        <v>228</v>
+      </c>
+      <c r="C136" s="8">
+        <v>660</v>
+      </c>
+      <c r="D136" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B137" s="8">
+        <v>221</v>
+      </c>
+      <c r="C137" s="8">
+        <v>757</v>
+      </c>
+      <c r="D137" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B138" s="8">
+        <v>260</v>
+      </c>
+      <c r="C138" s="8">
+        <v>812</v>
+      </c>
+      <c r="D138" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B139" s="8">
+        <v>411</v>
+      </c>
+      <c r="C139" s="8">
+        <v>1069</v>
+      </c>
+      <c r="D139" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B140" s="8">
+        <v>301</v>
+      </c>
+      <c r="C140" s="8">
+        <v>1134</v>
+      </c>
+      <c r="D140" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B141" s="8">
+        <v>492</v>
+      </c>
+      <c r="C141" s="8">
+        <v>1426</v>
+      </c>
+      <c r="D141" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B142" s="8">
+        <v>480</v>
+      </c>
+      <c r="C142" s="8">
+        <v>1712</v>
+      </c>
+      <c r="D142" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143" s="8">
+        <v>535</v>
+      </c>
+      <c r="C143" s="8">
+        <v>1837</v>
+      </c>
+      <c r="D143" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" s="8">
+        <v>1517</v>
+      </c>
+      <c r="C144" s="8">
+        <v>4720</v>
+      </c>
+      <c r="D144" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B145" s="8">
+        <v>1398</v>
+      </c>
+      <c r="C145" s="8">
+        <v>5228</v>
+      </c>
+      <c r="D145" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B146" s="8">
+        <v>2097</v>
+      </c>
+      <c r="C146" s="8">
+        <v>7748</v>
+      </c>
+      <c r="D146" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B147" s="8">
+        <v>0</v>
+      </c>
+      <c r="C147" s="8">
+        <v>0</v>
+      </c>
+      <c r="D147" s="20" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B148" s="8">
+        <v>0</v>
+      </c>
+      <c r="C148" s="8">
+        <v>0</v>
+      </c>
+      <c r="D148" s="20" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B149" s="8">
+        <v>0</v>
+      </c>
+      <c r="C149" s="8">
+        <v>0</v>
+      </c>
+      <c r="D149" s="20" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" s="8">
+        <v>0</v>
+      </c>
+      <c r="C150" s="8">
+        <v>0</v>
+      </c>
+      <c r="D150" s="20" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E151">
+    <sortCondition sortBy="cellColor" ref="A2:A151" dxfId="43"/>
+    <sortCondition ref="D2:D151"/>
+    <sortCondition ref="C2:C151"/>
+  </sortState>
+  <conditionalFormatting sqref="B2:C150">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="NOT">
+      <formula>NOT(ISERROR(SEARCH("NOT",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="Corpus">
+      <formula>NOT(ISERROR(SEARCH("Corpus",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D46 D48:D117 D120:D129 D131:D150">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="notBetween">
+      <formula>0</formula>
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="20" priority="10">
+      <formula>LEN(TRIM(D2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="NOT">
+      <formula>NOT(ISERROR(SEARCH("NOT",D47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="Corpus">
+      <formula>NOT(ISERROR(SEARCH("Corpus",D47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D118:D119">
+    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="NOT">
+      <formula>NOT(ISERROR(SEARCH("NOT",D118)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="Corpus">
+      <formula>NOT(ISERROR(SEARCH("Corpus",D118)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D130">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="NOT">
+      <formula>NOT(ISERROR(SEARCH("NOT",D130)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="Corpus">
+      <formula>NOT(ISERROR(SEARCH("Corpus",D130)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3116D3D5-8011-492D-9D9F-303B3188C0FD}">
+  <dimension ref="A1:T150"/>
+  <sheetViews>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" style="8"/>
+    <col min="2" max="2" width="13.85546875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="12" max="12" width="26.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="22">
+        <v>2</v>
+      </c>
+      <c r="C2" s="22">
+        <v>2</v>
+      </c>
+      <c r="D2" s="22">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="M2" s="22">
+        <v>2</v>
+      </c>
+      <c r="N2" s="22">
+        <v>4</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>1720</v>
+      </c>
+      <c r="S2" s="21"/>
+      <c r="T2" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" s="22">
+        <v>4</v>
+      </c>
+      <c r="C3" s="22">
+        <v>2</v>
+      </c>
+      <c r="D3" s="22">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M3" s="22">
+        <v>2</v>
+      </c>
+      <c r="N3" s="22">
+        <v>4</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="22">
+        <v>15</v>
+      </c>
+      <c r="C4" s="22">
+        <v>10</v>
+      </c>
+      <c r="D4" s="22">
+        <v>22</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="M4" s="22">
+        <v>10</v>
+      </c>
+      <c r="N4" s="22">
+        <v>22</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="22">
+        <v>39</v>
+      </c>
+      <c r="C5" s="22">
+        <v>27</v>
+      </c>
+      <c r="D5" s="22">
+        <v>55</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18"/>
+      <c r="L5" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="M5" s="22">
+        <v>27</v>
+      </c>
+      <c r="N5" s="22">
+        <v>55</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="22">
+        <v>43</v>
+      </c>
+      <c r="C6" s="22">
+        <v>34</v>
+      </c>
+      <c r="D6" s="22">
+        <v>68</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="M6" s="22">
+        <v>34</v>
+      </c>
+      <c r="N6" s="22">
+        <v>68</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="13"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="22">
+        <v>33</v>
+      </c>
+      <c r="C7" s="22">
+        <v>28</v>
+      </c>
+      <c r="D7" s="22">
+        <v>90</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="M7" s="22">
+        <v>28</v>
+      </c>
+      <c r="N7" s="22">
+        <v>90</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="13"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="22">
+        <v>55</v>
+      </c>
+      <c r="C8" s="22">
+        <v>36</v>
+      </c>
+      <c r="D8" s="22">
+        <v>124</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="M8" s="22">
+        <v>36</v>
+      </c>
+      <c r="N8" s="22">
+        <v>124</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="22">
+        <v>52</v>
+      </c>
+      <c r="C9" s="22">
+        <v>36</v>
+      </c>
+      <c r="D9" s="22">
+        <v>129</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>166</v>
+      </c>
+      <c r="M9" s="22">
+        <v>36</v>
+      </c>
+      <c r="N9" s="22">
+        <v>129</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="22">
+        <v>95</v>
+      </c>
+      <c r="C10" s="22">
+        <v>66</v>
+      </c>
+      <c r="D10" s="22">
+        <v>137</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="M10" s="22">
+        <v>66</v>
+      </c>
+      <c r="N10" s="22">
+        <v>137</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="22">
+        <v>84</v>
+      </c>
+      <c r="C11" s="22">
+        <v>59</v>
+      </c>
+      <c r="D11" s="22">
+        <v>173</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="M11" s="22">
+        <v>59</v>
+      </c>
+      <c r="N11" s="22">
+        <v>173</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="13"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B12" s="22">
+        <v>241</v>
+      </c>
+      <c r="C12" s="22">
+        <v>177</v>
+      </c>
+      <c r="D12" s="22">
+        <v>482</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="M12" s="22">
+        <v>177</v>
+      </c>
+      <c r="N12" s="22">
+        <v>482</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="13"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" s="22">
+        <v>11</v>
+      </c>
+      <c r="C13" s="22">
+        <v>7</v>
+      </c>
+      <c r="D13" s="22">
+        <v>13</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="M13" s="22">
+        <v>7</v>
+      </c>
+      <c r="N13" s="22">
+        <v>13</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="P13" s="13"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="22">
+        <v>101</v>
+      </c>
+      <c r="C14" s="22">
+        <v>67</v>
+      </c>
+      <c r="D14" s="22">
+        <v>112</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" s="22">
+        <v>67</v>
+      </c>
+      <c r="N14" s="22">
+        <v>112</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="22">
+        <v>13</v>
+      </c>
+      <c r="C15" s="22">
+        <v>8</v>
+      </c>
+      <c r="D15" s="22">
+        <v>21</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="22">
+        <v>8</v>
+      </c>
+      <c r="N15" s="22">
+        <v>21</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="P15" s="13"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="22">
+        <v>30</v>
+      </c>
+      <c r="C16" s="22">
+        <v>18</v>
+      </c>
+      <c r="D16" s="22">
+        <v>26</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="22">
+        <v>18</v>
+      </c>
+      <c r="N16" s="22">
+        <v>26</v>
+      </c>
+      <c r="O16" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="P16" s="13"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="22">
+        <v>25</v>
+      </c>
+      <c r="C17" s="22">
+        <v>17</v>
+      </c>
+      <c r="D17" s="22">
+        <v>50</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" s="22">
+        <v>17</v>
+      </c>
+      <c r="N17" s="22">
+        <v>50</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="P17" s="13"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="22">
+        <v>12</v>
+      </c>
+      <c r="C18" s="22">
+        <v>6</v>
+      </c>
+      <c r="D18" s="22">
+        <v>16</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="M18" s="22">
+        <v>6</v>
+      </c>
+      <c r="N18" s="22">
+        <v>16</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0.875</v>
+      </c>
+      <c r="P18" s="13"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="22">
+        <v>7</v>
+      </c>
+      <c r="C19" s="22">
+        <v>6</v>
+      </c>
+      <c r="D19" s="22">
+        <v>10</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" s="22">
+        <v>6</v>
+      </c>
+      <c r="N19" s="22">
+        <v>10</v>
+      </c>
+      <c r="O19" s="6">
+        <v>1</v>
+      </c>
+      <c r="P19" s="13"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="22">
+        <v>12</v>
+      </c>
+      <c r="C20" s="22">
+        <v>6</v>
+      </c>
+      <c r="D20" s="22">
+        <v>16</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="M20" s="22">
+        <v>6</v>
+      </c>
+      <c r="N20" s="22">
+        <v>16</v>
+      </c>
+      <c r="O20" s="6">
+        <v>1</v>
+      </c>
+      <c r="P20" s="13"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="22">
+        <v>20</v>
+      </c>
+      <c r="C21" s="22">
+        <v>13</v>
+      </c>
+      <c r="D21" s="22">
+        <v>40</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="M21" s="22">
+        <v>13</v>
+      </c>
+      <c r="N21" s="22">
+        <v>40</v>
+      </c>
+      <c r="O21" s="6">
+        <v>1</v>
+      </c>
+      <c r="P21" s="13"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="22">
+        <v>50</v>
+      </c>
+      <c r="C22" s="22">
+        <v>35</v>
+      </c>
+      <c r="D22" s="22">
+        <v>74</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="M22" s="22">
+        <v>35</v>
+      </c>
+      <c r="N22" s="22">
+        <v>74</v>
+      </c>
+      <c r="O22" s="6">
+        <v>1</v>
+      </c>
+      <c r="P22" s="13"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="22">
+        <v>202</v>
+      </c>
+      <c r="C23" s="22">
+        <v>150</v>
+      </c>
+      <c r="D23" s="22">
+        <v>269</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="M23" s="22">
+        <v>150</v>
+      </c>
+      <c r="N23" s="22">
+        <v>269</v>
+      </c>
+      <c r="O23" s="6">
+        <v>1</v>
+      </c>
+      <c r="P23" s="13"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="8">
+        <v>24</v>
+      </c>
+      <c r="C24" s="8">
+        <v>15</v>
+      </c>
+      <c r="D24" s="8">
+        <v>49</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="8">
+        <v>14</v>
+      </c>
+      <c r="C25" s="8">
+        <v>9</v>
+      </c>
+      <c r="D25" s="8">
+        <v>11</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8">
+        <v>76</v>
+      </c>
+      <c r="C26" s="8">
+        <v>57</v>
+      </c>
+      <c r="D26" s="8">
+        <v>141</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="8">
+        <v>10</v>
+      </c>
+      <c r="C27" s="8">
+        <v>6</v>
+      </c>
+      <c r="D27" s="8">
+        <v>11</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="8">
+        <v>23</v>
+      </c>
+      <c r="C28" s="8">
+        <v>17</v>
+      </c>
+      <c r="D28" s="8">
+        <v>37</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="8">
+        <v>18</v>
+      </c>
+      <c r="C29" s="8">
+        <v>15</v>
+      </c>
+      <c r="D29" s="8">
+        <v>44</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="8">
+        <v>26</v>
+      </c>
+      <c r="C30" s="8">
+        <v>22</v>
+      </c>
+      <c r="D30" s="8">
+        <v>52</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B31" s="8">
+        <v>73</v>
+      </c>
+      <c r="C31" s="8">
+        <v>53</v>
+      </c>
+      <c r="D31" s="8">
+        <v>91</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="8">
+        <v>90</v>
+      </c>
+      <c r="C32" s="8">
+        <v>58</v>
+      </c>
+      <c r="D32" s="8">
+        <v>113</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="8">
+        <v>57</v>
+      </c>
+      <c r="C33" s="8">
+        <v>38</v>
+      </c>
+      <c r="D33" s="8">
+        <v>118</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="8">
+        <v>90</v>
+      </c>
+      <c r="C34" s="8">
+        <v>61</v>
+      </c>
+      <c r="D34" s="8">
+        <v>154</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" s="8">
+        <v>109</v>
+      </c>
+      <c r="C35" s="8">
+        <v>76</v>
+      </c>
+      <c r="D35" s="8">
+        <v>222</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="8">
+        <v>289</v>
+      </c>
+      <c r="C36" s="8">
+        <v>210</v>
+      </c>
+      <c r="D36" s="8">
+        <v>962</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="8">
+        <v>26</v>
+      </c>
+      <c r="C37" s="8">
+        <v>20</v>
+      </c>
+      <c r="D37" s="8">
+        <v>51</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="8">
+        <v>38</v>
+      </c>
+      <c r="C38" s="8">
+        <v>32</v>
+      </c>
+      <c r="D38" s="8">
+        <v>73</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="8">
+        <v>7</v>
+      </c>
+      <c r="C39" s="8">
+        <v>5</v>
+      </c>
+      <c r="D39" s="8">
+        <v>24</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="8">
+        <v>25</v>
+      </c>
+      <c r="C40" s="8">
+        <v>17</v>
+      </c>
+      <c r="D40" s="8">
+        <v>50</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="8">
+        <v>84</v>
+      </c>
+      <c r="C41" s="8">
+        <v>58</v>
+      </c>
+      <c r="D41" s="8">
+        <v>140</v>
+      </c>
+      <c r="E41" s="6">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" s="8">
+        <v>7</v>
+      </c>
+      <c r="C42" s="8">
+        <v>6</v>
+      </c>
+      <c r="D42" s="8">
+        <v>10</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="8">
+        <v>15</v>
+      </c>
+      <c r="C43" s="8">
+        <v>9</v>
+      </c>
+      <c r="D43" s="8">
+        <v>19</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="8">
+        <v>45</v>
+      </c>
+      <c r="C44" s="8">
+        <v>26</v>
+      </c>
+      <c r="D44" s="8">
+        <v>61</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="8">
+        <v>9</v>
+      </c>
+      <c r="C45" s="8">
+        <v>8</v>
+      </c>
+      <c r="D45" s="8">
+        <v>13</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" s="8">
+        <v>90</v>
+      </c>
+      <c r="C46" s="8">
+        <v>58</v>
+      </c>
+      <c r="D46" s="8">
+        <v>113</v>
+      </c>
+      <c r="E46" s="6">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="8">
+        <v>23</v>
+      </c>
+      <c r="C47" s="8">
+        <v>14</v>
+      </c>
+      <c r="D47" s="8">
+        <v>35</v>
+      </c>
+      <c r="E47" s="19">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="8">
+        <v>0</v>
+      </c>
+      <c r="C48" s="8">
+        <v>0</v>
+      </c>
+      <c r="D48" s="8">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="8">
+        <v>0</v>
+      </c>
+      <c r="C49" s="8">
+        <v>0</v>
+      </c>
+      <c r="D49" s="8">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B50" s="8">
+        <v>0</v>
+      </c>
+      <c r="C50" s="8">
+        <v>0</v>
+      </c>
+      <c r="D50" s="8">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B51" s="8">
+        <v>4</v>
+      </c>
+      <c r="C51" s="8">
+        <v>2</v>
+      </c>
+      <c r="D51" s="8">
+        <v>2</v>
+      </c>
+      <c r="E51" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B52" s="8">
+        <v>6</v>
+      </c>
+      <c r="C52" s="8">
+        <v>2</v>
+      </c>
+      <c r="D52" s="8">
+        <v>3</v>
+      </c>
+      <c r="E52" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="8">
+        <v>6</v>
+      </c>
+      <c r="C53" s="8">
+        <v>2</v>
+      </c>
+      <c r="D53" s="8">
+        <v>3</v>
+      </c>
+      <c r="E53" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="8">
+        <v>7</v>
+      </c>
+      <c r="C54" s="8">
+        <v>4</v>
+      </c>
+      <c r="D54" s="8">
+        <v>5</v>
+      </c>
+      <c r="E54" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="8">
+        <v>11</v>
+      </c>
+      <c r="C55" s="8">
+        <v>6</v>
+      </c>
+      <c r="D55" s="8">
+        <v>8</v>
+      </c>
+      <c r="E55" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="8">
+        <v>6</v>
+      </c>
+      <c r="C56" s="8">
+        <v>5</v>
+      </c>
+      <c r="D56" s="8">
+        <v>9</v>
+      </c>
+      <c r="E56" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" s="8">
+        <v>9</v>
+      </c>
+      <c r="C57" s="8">
+        <v>5</v>
+      </c>
+      <c r="D57" s="8">
+        <v>11</v>
+      </c>
+      <c r="E57" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="8">
+        <v>9</v>
+      </c>
+      <c r="C58" s="8">
+        <v>5</v>
+      </c>
+      <c r="D58" s="8">
+        <v>11</v>
+      </c>
+      <c r="E58" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="8">
+        <v>9</v>
+      </c>
+      <c r="C59" s="8">
+        <v>8</v>
+      </c>
+      <c r="D59" s="8">
+        <v>13</v>
+      </c>
+      <c r="E59" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="8">
+        <v>9</v>
+      </c>
+      <c r="C60" s="8">
+        <v>9</v>
+      </c>
+      <c r="D60" s="8">
+        <v>13</v>
+      </c>
+      <c r="E60" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="8">
+        <v>11</v>
+      </c>
+      <c r="C61" s="8">
+        <v>7</v>
+      </c>
+      <c r="D61" s="8">
+        <v>13</v>
+      </c>
+      <c r="E61" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" s="8">
+        <v>10</v>
+      </c>
+      <c r="C62" s="8">
+        <v>6</v>
+      </c>
+      <c r="D62" s="8">
+        <v>14</v>
+      </c>
+      <c r="E62" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" s="8">
+        <v>11</v>
+      </c>
+      <c r="C63" s="8">
+        <v>7</v>
+      </c>
+      <c r="D63" s="8">
+        <v>15</v>
+      </c>
+      <c r="E63" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="8">
+        <v>12</v>
+      </c>
+      <c r="C64" s="8">
+        <v>6</v>
+      </c>
+      <c r="D64" s="8">
+        <v>16</v>
+      </c>
+      <c r="E64" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" s="8">
+        <v>12</v>
+      </c>
+      <c r="C65" s="8">
+        <v>6</v>
+      </c>
+      <c r="D65" s="8">
+        <v>16</v>
+      </c>
+      <c r="E65" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" s="8">
+        <v>8</v>
+      </c>
+      <c r="C66" s="8">
+        <v>6</v>
+      </c>
+      <c r="D66" s="8">
+        <v>16</v>
+      </c>
+      <c r="E66" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="8">
+        <v>11</v>
+      </c>
+      <c r="C67" s="8">
+        <v>5</v>
+      </c>
+      <c r="D67" s="8">
+        <v>18</v>
+      </c>
+      <c r="E67" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="8">
+        <v>9</v>
+      </c>
+      <c r="C68" s="8">
+        <v>9</v>
+      </c>
+      <c r="D68" s="8">
+        <v>19</v>
+      </c>
+      <c r="E68" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69" s="8">
+        <v>15</v>
+      </c>
+      <c r="C69" s="8">
+        <v>11</v>
+      </c>
+      <c r="D69" s="8">
+        <v>21</v>
+      </c>
+      <c r="E69" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B70" s="8">
+        <v>19</v>
+      </c>
+      <c r="C70" s="8">
+        <v>15</v>
+      </c>
+      <c r="D70" s="8">
+        <v>21</v>
+      </c>
+      <c r="E70" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B71" s="8">
+        <v>17</v>
+      </c>
+      <c r="C71" s="8">
+        <v>14</v>
+      </c>
+      <c r="D71" s="8">
+        <v>26</v>
+      </c>
+      <c r="E71" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="8">
+        <v>20</v>
+      </c>
+      <c r="C72" s="8">
+        <v>9</v>
+      </c>
+      <c r="D72" s="8">
+        <v>28</v>
+      </c>
+      <c r="E72" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="8">
+        <v>15</v>
+      </c>
+      <c r="C73" s="8">
+        <v>15</v>
+      </c>
+      <c r="D73" s="8">
+        <v>34</v>
+      </c>
+      <c r="E73" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="8">
+        <v>18</v>
+      </c>
+      <c r="C74" s="8">
+        <v>16</v>
+      </c>
+      <c r="D74" s="8">
+        <v>34</v>
+      </c>
+      <c r="E74" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75" s="8">
+        <v>25</v>
+      </c>
+      <c r="C75" s="8">
+        <v>21</v>
+      </c>
+      <c r="D75" s="8">
+        <v>36</v>
+      </c>
+      <c r="E75" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" s="8">
+        <v>23</v>
+      </c>
+      <c r="C76" s="8">
+        <v>17</v>
+      </c>
+      <c r="D76" s="8">
+        <v>37</v>
+      </c>
+      <c r="E76" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B77" s="8">
+        <v>10</v>
+      </c>
+      <c r="C77" s="8">
+        <v>9</v>
+      </c>
+      <c r="D77" s="8">
+        <v>38</v>
+      </c>
+      <c r="E77" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B78" s="8">
+        <v>22</v>
+      </c>
+      <c r="C78" s="8">
+        <v>18</v>
+      </c>
+      <c r="D78" s="8">
+        <v>39</v>
+      </c>
+      <c r="E78" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B79" s="8">
+        <v>32</v>
+      </c>
+      <c r="C79" s="8">
+        <v>24</v>
+      </c>
+      <c r="D79" s="8">
+        <v>43</v>
+      </c>
+      <c r="E79" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" s="8">
+        <v>27</v>
+      </c>
+      <c r="C80" s="8">
+        <v>21</v>
+      </c>
+      <c r="D80" s="8">
+        <v>44</v>
+      </c>
+      <c r="E80" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" s="8">
+        <v>30</v>
+      </c>
+      <c r="C81" s="8">
+        <v>24</v>
+      </c>
+      <c r="D81" s="8">
+        <v>46</v>
+      </c>
+      <c r="E81" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82" s="8">
+        <v>12</v>
+      </c>
+      <c r="C82" s="8">
+        <v>10</v>
+      </c>
+      <c r="D82" s="8">
+        <v>46</v>
+      </c>
+      <c r="E82" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B83" s="8">
+        <v>25</v>
+      </c>
+      <c r="C83" s="8">
+        <v>17</v>
+      </c>
+      <c r="D83" s="8">
+        <v>50</v>
+      </c>
+      <c r="E83" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B84" s="8">
+        <v>11</v>
+      </c>
+      <c r="C84" s="8">
+        <v>9</v>
+      </c>
+      <c r="D84" s="8">
+        <v>51</v>
+      </c>
+      <c r="E84" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B85" s="8">
+        <v>52</v>
+      </c>
+      <c r="C85" s="8">
+        <v>30</v>
+      </c>
+      <c r="D85" s="8">
+        <v>51</v>
+      </c>
+      <c r="E85" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B86" s="8">
+        <v>36</v>
+      </c>
+      <c r="C86" s="8">
+        <v>23</v>
+      </c>
+      <c r="D86" s="8">
+        <v>52</v>
+      </c>
+      <c r="E86" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B87" s="8">
+        <v>24</v>
+      </c>
+      <c r="C87" s="8">
+        <v>17</v>
+      </c>
+      <c r="D87" s="8">
+        <v>55</v>
+      </c>
+      <c r="E87" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B88" s="8">
+        <v>24</v>
+      </c>
+      <c r="C88" s="8">
+        <v>17</v>
+      </c>
+      <c r="D88" s="8">
+        <v>55</v>
+      </c>
+      <c r="E88" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B89" s="8">
+        <v>24</v>
+      </c>
+      <c r="C89" s="8">
+        <v>17</v>
+      </c>
+      <c r="D89" s="8">
+        <v>55</v>
+      </c>
+      <c r="E89" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B90" s="8">
+        <v>42</v>
+      </c>
+      <c r="C90" s="8">
+        <v>30</v>
+      </c>
+      <c r="D90" s="8">
+        <v>56</v>
+      </c>
+      <c r="E90" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="8">
+        <v>45</v>
+      </c>
+      <c r="C91" s="8">
+        <v>33</v>
+      </c>
+      <c r="D91" s="8">
+        <v>58</v>
+      </c>
+      <c r="E91" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B92" s="8">
+        <v>20</v>
+      </c>
+      <c r="C92" s="8">
+        <v>15</v>
+      </c>
+      <c r="D92" s="8">
+        <v>58</v>
+      </c>
+      <c r="E92" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B93" s="8">
+        <v>20</v>
+      </c>
+      <c r="C93" s="8">
+        <v>15</v>
+      </c>
+      <c r="D93" s="8">
+        <v>58</v>
+      </c>
+      <c r="E93" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B94" s="8">
+        <v>32</v>
+      </c>
+      <c r="C94" s="8">
+        <v>24</v>
+      </c>
+      <c r="D94" s="8">
+        <v>59</v>
+      </c>
+      <c r="E94" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B95" s="8">
+        <v>25</v>
+      </c>
+      <c r="C95" s="8">
+        <v>19</v>
+      </c>
+      <c r="D95" s="8">
+        <v>63</v>
+      </c>
+      <c r="E95" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" s="8">
+        <v>19</v>
+      </c>
+      <c r="C96" s="8">
+        <v>12</v>
+      </c>
+      <c r="D96" s="8">
+        <v>63</v>
+      </c>
+      <c r="E96" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B97" s="8">
+        <v>26</v>
+      </c>
+      <c r="C97" s="8">
+        <v>17</v>
+      </c>
+      <c r="D97" s="8">
+        <v>68</v>
+      </c>
+      <c r="E97" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="8">
+        <v>26</v>
+      </c>
+      <c r="C98" s="8">
+        <v>17</v>
+      </c>
+      <c r="D98" s="8">
+        <v>68</v>
+      </c>
+      <c r="E98" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B99" s="8">
+        <v>38</v>
+      </c>
+      <c r="C99" s="8">
+        <v>32</v>
+      </c>
+      <c r="D99" s="8">
+        <v>73</v>
+      </c>
+      <c r="E99" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B100" s="8">
+        <v>38</v>
+      </c>
+      <c r="C100" s="8">
+        <v>32</v>
+      </c>
+      <c r="D100" s="8">
+        <v>73</v>
+      </c>
+      <c r="E100" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" s="8">
+        <v>61</v>
+      </c>
+      <c r="C101" s="8">
+        <v>44</v>
+      </c>
+      <c r="D101" s="8">
+        <v>74</v>
+      </c>
+      <c r="E101" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B102" s="8">
+        <v>49</v>
+      </c>
+      <c r="C102" s="8">
+        <v>28</v>
+      </c>
+      <c r="D102" s="8">
+        <v>74</v>
+      </c>
+      <c r="E102" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B103" s="8">
+        <v>62</v>
+      </c>
+      <c r="C103" s="8">
+        <v>42</v>
+      </c>
+      <c r="D103" s="8">
+        <v>95</v>
+      </c>
+      <c r="E103" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B104" s="8">
+        <v>54</v>
+      </c>
+      <c r="C104" s="8">
+        <v>41</v>
+      </c>
+      <c r="D104" s="8">
+        <v>110</v>
+      </c>
+      <c r="E104" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B105" s="8">
+        <v>32</v>
+      </c>
+      <c r="C105" s="8">
+        <v>25</v>
+      </c>
+      <c r="D105" s="8">
+        <v>110</v>
+      </c>
+      <c r="E105" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106" s="8">
+        <v>90</v>
+      </c>
+      <c r="C106" s="8">
+        <v>58</v>
+      </c>
+      <c r="D106" s="8">
+        <v>113</v>
+      </c>
+      <c r="E106" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B107" s="8">
+        <v>83</v>
+      </c>
+      <c r="C107" s="8">
+        <v>63</v>
+      </c>
+      <c r="D107" s="8">
+        <v>127</v>
+      </c>
+      <c r="E107" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" s="8">
+        <v>47</v>
+      </c>
+      <c r="C108" s="8">
+        <v>37</v>
+      </c>
+      <c r="D108" s="8">
+        <v>131</v>
+      </c>
+      <c r="E108" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B109" s="8">
+        <v>98</v>
+      </c>
+      <c r="C109" s="8">
+        <v>72</v>
+      </c>
+      <c r="D109" s="8">
+        <v>136</v>
+      </c>
+      <c r="E109" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" s="8">
+        <v>59</v>
+      </c>
+      <c r="C110" s="8">
+        <v>47</v>
+      </c>
+      <c r="D110" s="8">
+        <v>140</v>
+      </c>
+      <c r="E110" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B111" s="8">
+        <v>76</v>
+      </c>
+      <c r="C111" s="8">
+        <v>57</v>
+      </c>
+      <c r="D111" s="8">
+        <v>141</v>
+      </c>
+      <c r="E111" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B112" s="8">
+        <v>138</v>
+      </c>
+      <c r="C112" s="8">
+        <v>83</v>
+      </c>
+      <c r="D112" s="8">
+        <v>146</v>
+      </c>
+      <c r="E112" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B113" s="8">
+        <v>98</v>
+      </c>
+      <c r="C113" s="8">
+        <v>60</v>
+      </c>
+      <c r="D113" s="8">
+        <v>151</v>
+      </c>
+      <c r="E113" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B114" s="8">
+        <v>65</v>
+      </c>
+      <c r="C114" s="8">
+        <v>38</v>
+      </c>
+      <c r="D114" s="8">
+        <v>160</v>
+      </c>
+      <c r="E114" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B115" s="8">
+        <v>85</v>
+      </c>
+      <c r="C115" s="8">
+        <v>52</v>
+      </c>
+      <c r="D115" s="8">
+        <v>173</v>
+      </c>
+      <c r="E115" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B116" s="8">
+        <v>83</v>
+      </c>
+      <c r="C116" s="8">
+        <v>68</v>
+      </c>
+      <c r="D116" s="8">
+        <v>177</v>
+      </c>
+      <c r="E116" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B117" s="8">
+        <v>83</v>
+      </c>
+      <c r="C117" s="8">
+        <v>68</v>
+      </c>
+      <c r="D117" s="8">
+        <v>177</v>
+      </c>
+      <c r="E117" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B118" s="8">
+        <v>100</v>
+      </c>
+      <c r="C118" s="8">
+        <v>69</v>
+      </c>
+      <c r="D118" s="8">
+        <v>177</v>
+      </c>
+      <c r="E118" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" s="8">
+        <v>154</v>
+      </c>
+      <c r="C119" s="8">
+        <v>118</v>
+      </c>
+      <c r="D119" s="8">
+        <v>223</v>
+      </c>
+      <c r="E119" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B120" s="8">
+        <v>115</v>
+      </c>
+      <c r="C120" s="8">
+        <v>95</v>
+      </c>
+      <c r="D120" s="8">
+        <v>226</v>
+      </c>
+      <c r="E120" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B121" s="8">
+        <v>45</v>
+      </c>
+      <c r="C121" s="8">
+        <v>35</v>
+      </c>
+      <c r="D121" s="8">
+        <v>255</v>
+      </c>
+      <c r="E121" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B122" s="8">
+        <v>110</v>
+      </c>
+      <c r="C122" s="8">
+        <v>83</v>
+      </c>
+      <c r="D122" s="8">
+        <v>270</v>
+      </c>
+      <c r="E122" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B123" s="8">
+        <v>160</v>
+      </c>
+      <c r="C123" s="8">
+        <v>113</v>
+      </c>
+      <c r="D123" s="8">
+        <v>302</v>
+      </c>
+      <c r="E123" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B124" s="8">
+        <v>121</v>
+      </c>
+      <c r="C124" s="8">
+        <v>97</v>
+      </c>
+      <c r="D124" s="8">
+        <v>319</v>
+      </c>
+      <c r="E124" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B125" s="8">
+        <v>187</v>
+      </c>
+      <c r="C125" s="8">
+        <v>137</v>
+      </c>
+      <c r="D125" s="8">
+        <v>322</v>
+      </c>
+      <c r="E125" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B126" s="8">
+        <v>142</v>
+      </c>
+      <c r="C126" s="8">
+        <v>120</v>
+      </c>
+      <c r="D126" s="8">
+        <v>328</v>
+      </c>
+      <c r="E126" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B127" s="8">
+        <v>184</v>
+      </c>
+      <c r="C127" s="8">
+        <v>141</v>
+      </c>
+      <c r="D127" s="8">
+        <v>341</v>
+      </c>
+      <c r="E127" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B128" s="8">
+        <v>152</v>
+      </c>
+      <c r="C128" s="8">
+        <v>117</v>
+      </c>
+      <c r="D128" s="8">
+        <v>341</v>
+      </c>
+      <c r="E128" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B129" s="8">
+        <v>162</v>
+      </c>
+      <c r="C129" s="8">
+        <v>129</v>
+      </c>
+      <c r="D129" s="8">
+        <v>350</v>
+      </c>
+      <c r="E129" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B130" s="8">
+        <v>195</v>
+      </c>
+      <c r="C130" s="8">
+        <v>141</v>
+      </c>
+      <c r="D130" s="8">
+        <v>421</v>
+      </c>
+      <c r="E130" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B131" s="8">
+        <v>208</v>
+      </c>
+      <c r="C131" s="8">
+        <v>166</v>
+      </c>
+      <c r="D131" s="8">
+        <v>428</v>
+      </c>
+      <c r="E131" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B132" s="8">
+        <v>304</v>
+      </c>
+      <c r="C132" s="8">
+        <v>219</v>
+      </c>
+      <c r="D132" s="8">
+        <v>505</v>
+      </c>
+      <c r="E132" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B133" s="8">
+        <v>231</v>
+      </c>
+      <c r="C133" s="8">
+        <v>177</v>
+      </c>
+      <c r="D133" s="8">
+        <v>510</v>
+      </c>
+      <c r="E133" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B134" s="8">
+        <v>281</v>
+      </c>
+      <c r="C134" s="8">
+        <v>175</v>
+      </c>
+      <c r="D134" s="8">
+        <v>528</v>
+      </c>
+      <c r="E134" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B135" s="8">
+        <v>373</v>
+      </c>
+      <c r="C135" s="8">
+        <v>289</v>
+      </c>
+      <c r="D135" s="8">
+        <v>614</v>
+      </c>
+      <c r="E135" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B136" s="8">
+        <v>287</v>
+      </c>
+      <c r="C136" s="8">
+        <v>228</v>
+      </c>
+      <c r="D136" s="8">
+        <v>660</v>
+      </c>
+      <c r="E136" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B137" s="8">
+        <v>321</v>
+      </c>
+      <c r="C137" s="8">
+        <v>221</v>
+      </c>
+      <c r="D137" s="8">
+        <v>757</v>
+      </c>
+      <c r="E137" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B138" s="8">
+        <v>361</v>
+      </c>
+      <c r="C138" s="8">
+        <v>260</v>
+      </c>
+      <c r="D138" s="8">
+        <v>812</v>
+      </c>
+      <c r="E138" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B139" s="8">
+        <v>616</v>
+      </c>
+      <c r="C139" s="8">
+        <v>411</v>
+      </c>
+      <c r="D139" s="8">
+        <v>1069</v>
+      </c>
+      <c r="E139" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B140" s="8">
+        <v>370</v>
+      </c>
+      <c r="C140" s="8">
+        <v>301</v>
+      </c>
+      <c r="D140" s="8">
+        <v>1134</v>
+      </c>
+      <c r="E140" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B141" s="8">
+        <v>643</v>
+      </c>
+      <c r="C141" s="8">
+        <v>492</v>
+      </c>
+      <c r="D141" s="8">
+        <v>1426</v>
+      </c>
+      <c r="E141" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B142" s="8">
+        <v>588</v>
+      </c>
+      <c r="C142" s="8">
+        <v>480</v>
+      </c>
+      <c r="D142" s="8">
+        <v>1712</v>
+      </c>
+      <c r="E142" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143" s="8">
+        <v>732</v>
+      </c>
+      <c r="C143" s="8">
+        <v>535</v>
+      </c>
+      <c r="D143" s="8">
+        <v>1837</v>
+      </c>
+      <c r="E143" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144" s="8">
+        <v>1491</v>
+      </c>
+      <c r="C144" s="8">
+        <v>1517</v>
+      </c>
+      <c r="D144" s="8">
+        <v>4720</v>
+      </c>
+      <c r="E144" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B145" s="8">
+        <v>1969</v>
+      </c>
+      <c r="C145" s="8">
+        <v>1398</v>
+      </c>
+      <c r="D145" s="8">
+        <v>5228</v>
+      </c>
+      <c r="E145" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B146" s="8">
+        <v>2799</v>
+      </c>
+      <c r="C146" s="8">
+        <v>2097</v>
+      </c>
+      <c r="D146" s="8">
+        <v>7748</v>
+      </c>
+      <c r="E146" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B147" s="8">
+        <v>0</v>
+      </c>
+      <c r="C147" s="8">
+        <v>0</v>
+      </c>
+      <c r="D147" s="8">
+        <v>0</v>
+      </c>
+      <c r="E147" s="20" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B148" s="8">
+        <v>0</v>
+      </c>
+      <c r="C148" s="8">
+        <v>0</v>
+      </c>
+      <c r="D148" s="8">
+        <v>0</v>
+      </c>
+      <c r="E148" s="20" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B149" s="8">
+        <v>0</v>
+      </c>
+      <c r="C149" s="8">
+        <v>0</v>
+      </c>
+      <c r="D149" s="8">
+        <v>0</v>
+      </c>
+      <c r="E149" s="20" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" s="8">
+        <v>0</v>
+      </c>
+      <c r="C150" s="8">
+        <v>0</v>
+      </c>
+      <c r="D150" s="8">
+        <v>0</v>
+      </c>
+      <c r="E150" s="20" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F150">
+    <sortCondition sortBy="cellColor" ref="A2:A150" dxfId="42"/>
+  </sortState>
+  <conditionalFormatting sqref="B13:D150">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="NOT">
+      <formula>NOT(ISERROR(SEARCH("NOT",B13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="Corpus">
+      <formula>NOT(ISERROR(SEARCH("Corpus",B13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E46 E48:E117 E120:E129 E131:E150">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="notBetween">
+      <formula>0</formula>
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="10" priority="15">
+      <formula>LEN(TRIM(E2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="NOT">
+      <formula>NOT(ISERROR(SEARCH("NOT",E47)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="Corpus">
+      <formula>NOT(ISERROR(SEARCH("Corpus",E47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E118:E119">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="NOT">
+      <formula>NOT(ISERROR(SEARCH("NOT",E118)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="Corpus">
+      <formula>NOT(ISERROR(SEARCH("Corpus",E118)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E130">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="NOT">
+      <formula>NOT(ISERROR(SEARCH("NOT",E130)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="12" operator="containsText" text="Corpus">
+      <formula>NOT(ISERROR(SEARCH("Corpus",E130)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M2:N23">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="NOT">
+      <formula>NOT(ISERROR(SEARCH("NOT",M2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Corpus">
+      <formula>NOT(ISERROR(SEARCH("Corpus",M2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O23">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="notBetween">
+      <formula>0</formula>
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="0" priority="4">
+      <formula>LEN(TRIM(O2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>